--- a/data_parser/data/products_data.xlsx
+++ b/data_parser/data/products_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,46 @@
           <t>Брокколи</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Яйцо куриное варёное</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Хлеб ржаной</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Скумбрия солёная</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Кефир</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Крупа ячневая</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Каша овсяная</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Морковь вареная</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Сыр Пармезан</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +521,30 @@
       <c r="F2" t="n">
         <v>2.8</v>
       </c>
+      <c r="G2" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N2" t="n">
+        <v>35.8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -503,6 +567,30 @@
       <c r="F3" t="n">
         <v>0.4</v>
       </c>
+      <c r="G3" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -525,6 +613,30 @@
       <c r="F4" t="n">
         <v>6.6</v>
       </c>
+      <c r="G4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -547,6 +659,30 @@
       <c r="F5" t="n">
         <v>3.1e-05</v>
       </c>
+      <c r="G5" t="n">
+        <v>0.000149</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.7e-05</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.000171</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.000852</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.000207</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -569,6 +705,30 @@
       <c r="F6" t="n">
         <v>0.000361</v>
       </c>
+      <c r="G6" t="n">
+        <v>1.1e-05</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4e-06</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.3e-05</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.008332000000000001</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.600000000000001e-05</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -591,6 +751,30 @@
       <c r="F7" t="n">
         <v>2.5e-05</v>
       </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.003776</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -613,6 +797,30 @@
       <c r="F8" t="n">
         <v>0</v>
       </c>
+      <c r="G8" t="n">
+        <v>2.2e-06</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.52e-05</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5e-07</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -635,6 +843,30 @@
       <c r="F9" t="n">
         <v>0</v>
       </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -657,6 +889,30 @@
       <c r="F10" t="n">
         <v>0</v>
       </c>
+      <c r="G10" t="n">
+        <v>2.2e-06</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.52e-05</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5e-07</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -679,6 +935,30 @@
       <c r="F11" t="n">
         <v>0.0008</v>
       </c>
+      <c r="G11" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0002</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -701,6 +981,30 @@
       <c r="F12" t="n">
         <v>0.0001016</v>
       </c>
+      <c r="G12" t="n">
+        <v>3e-07</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.2e-06</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7.8e-06</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.2e-06</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3e-07</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.37e-05</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.7e-06</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -723,6 +1027,30 @@
       <c r="F13" t="n">
         <v>0.0892</v>
       </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0036</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -745,6 +1073,30 @@
       <c r="F14" t="n">
         <v>0.0001</v>
       </c>
+      <c r="G14" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -767,6 +1119,30 @@
       <c r="F15" t="n">
         <v>0.0001</v>
       </c>
+      <c r="G15" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.0003</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -789,6 +1165,30 @@
       <c r="F16" t="n">
         <v>0.0005999999999999999</v>
       </c>
+      <c r="G16" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0038</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.0033</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.0046</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.0003</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -811,6 +1211,30 @@
       <c r="F17" t="n">
         <v>0.0187</v>
       </c>
+      <c r="G17" t="n">
+        <v>0.2938</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0146</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0152</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.0074</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.008800000000000001</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0154</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -833,6 +1257,30 @@
       <c r="F18" t="n">
         <v>0.0005999999999999999</v>
       </c>
+      <c r="G18" t="n">
+        <v>0.0014</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.0005</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -855,6 +1303,30 @@
       <c r="F19" t="n">
         <v>0.0002</v>
       </c>
+      <c r="G19" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.0001</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -877,6 +1349,30 @@
       <c r="F20" t="n">
         <v>6.3e-05</v>
       </c>
+      <c r="G20" t="n">
+        <v>4.4e-05</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.00011</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.5e-05</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.3e-05</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.9e-05</v>
+      </c>
+      <c r="L20" t="n">
+        <v>6e-06</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.4e-05</v>
+      </c>
+      <c r="N20" t="n">
+        <v>7e-06</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -899,6 +1395,30 @@
       <c r="F21" t="n">
         <v>0</v>
       </c>
+      <c r="G21" t="n">
+        <v>1.1e-06</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.2e-05</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3e-07</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.2e-06</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -921,6 +1441,30 @@
       <c r="F22" t="n">
         <v>0.047</v>
       </c>
+      <c r="G22" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.184</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -943,6 +1487,30 @@
       <c r="F23" t="n">
         <v>0.0007</v>
       </c>
+      <c r="G23" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0028</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.0014</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.0036</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.0008</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -965,6 +1533,30 @@
       <c r="F24" t="n">
         <v>0.021</v>
       </c>
+      <c r="G24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.044</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -987,6 +1579,30 @@
       <c r="F25" t="n">
         <v>0.066</v>
       </c>
+      <c r="G25" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.694</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1009,6 +1625,30 @@
       <c r="F26" t="n">
         <v>0.316</v>
       </c>
+      <c r="G26" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.092</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1031,6 +1671,30 @@
       <c r="F27" t="n">
         <v>0.033</v>
       </c>
+      <c r="G27" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.603</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.376</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1053,6 +1717,30 @@
       <c r="F28" t="n">
         <v>0.0004</v>
       </c>
+      <c r="G28" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.0028</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.0028</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1075,6 +1763,30 @@
       <c r="F29" t="n">
         <v>0</v>
       </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1097,6 +1809,30 @@
       <c r="F30" t="n">
         <v>0.0002</v>
       </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.0019</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1119,6 +1855,30 @@
       <c r="F31" t="n">
         <v>2.5e-06</v>
       </c>
+      <c r="G31" t="n">
+        <v>3.08e-05</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.09e-05</v>
+      </c>
+      <c r="I31" t="n">
+        <v>7.340000000000001e-05</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.6e-06</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.77e-05</v>
+      </c>
+      <c r="L31" t="n">
+        <v>5.4e-06</v>
+      </c>
+      <c r="M31" t="n">
+        <v>7e-07</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.25e-05</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1141,6 +1901,30 @@
       <c r="F32" t="n">
         <v>0</v>
       </c>
+      <c r="G32" t="n">
+        <v>4.8e-06</v>
+      </c>
+      <c r="H32" t="n">
+        <v>5.1e-05</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>7.159999999999999e-05</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4.75e-05</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1163,6 +1947,30 @@
       <c r="F33" t="n">
         <v>0.033</v>
       </c>
+      <c r="G33" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.482</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1185,6 +1993,30 @@
       <c r="F34" t="n">
         <v>0.08799999999999999</v>
       </c>
+      <c r="G34" t="n">
+        <v>0.604</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.317</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1207,6 +2039,30 @@
       <c r="F35" t="n">
         <v>0.079</v>
       </c>
+      <c r="G35" t="n">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.894</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1229,6 +2085,30 @@
       <c r="F36" t="n">
         <v>0.129</v>
       </c>
+      <c r="G36" t="n">
+        <v>1.075</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.579</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.848</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3.452</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1251,6 +2131,30 @@
       <c r="F37" t="n">
         <v>0.135</v>
       </c>
+      <c r="G37" t="n">
+        <v>0.904</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="N37" t="n">
+        <v>3.306</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1273,6 +2177,30 @@
       <c r="F38" t="n">
         <v>0.038</v>
       </c>
+      <c r="G38" t="n">
+        <v>0.392</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.958</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1295,6 +2223,30 @@
       <c r="F39" t="n">
         <v>0.028</v>
       </c>
+      <c r="G39" t="n">
+        <v>0.292</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.235</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1317,6 +2269,30 @@
       <c r="F40" t="n">
         <v>0.117</v>
       </c>
+      <c r="G40" t="n">
+        <v>0.668</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1.922</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1339,6 +2315,30 @@
       <c r="F41" t="n">
         <v>0.05</v>
       </c>
+      <c r="G41" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1.995</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1361,6 +2361,30 @@
       <c r="F42" t="n">
         <v>0.125</v>
       </c>
+      <c r="G42" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.379</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.612</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2.454</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1383,6 +2407,30 @@
       <c r="F43" t="n">
         <v>0.191</v>
       </c>
+      <c r="G43" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.317</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1405,6 +2453,30 @@
       <c r="F44" t="n">
         <v>0.059</v>
       </c>
+      <c r="G44" t="n">
+        <v>0.298</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.384</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1427,6 +2499,30 @@
       <c r="F45" t="n">
         <v>0.104</v>
       </c>
+      <c r="G45" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.299</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.486</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1.048</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1449,6 +2545,30 @@
       <c r="F46" t="n">
         <v>0.325</v>
       </c>
+      <c r="G46" t="n">
+        <v>1.264</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.779</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.302</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2.236</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1471,6 +2591,30 @@
       <c r="F47" t="n">
         <v>0.542</v>
       </c>
+      <c r="G47" t="n">
+        <v>1.644</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2.603</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>3.261</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.301</v>
+      </c>
+      <c r="N47" t="n">
+        <v>8.209</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1493,6 +2637,30 @@
       <c r="F48" t="n">
         <v>0.089</v>
       </c>
+      <c r="G48" t="n">
+        <v>0.423</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.302</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.622</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1515,6 +2683,30 @@
       <c r="F49" t="n">
         <v>0.11</v>
       </c>
+      <c r="G49" t="n">
+        <v>0.501</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.909</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1.484</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="N49" t="n">
+        <v>4.18</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1537,6 +2729,30 @@
       <c r="F50" t="n">
         <v>0.121</v>
       </c>
+      <c r="G50" t="n">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.527</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2.068</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1559,6 +2775,30 @@
       <c r="F51" t="n">
         <v>0</v>
       </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1581,6 +2821,30 @@
       <c r="F52" t="n">
         <v>2.6</v>
       </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1603,6 +2867,30 @@
       <c r="F53" t="n">
         <v>0</v>
       </c>
+      <c r="G53" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.068</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1625,6 +2913,30 @@
       <c r="F54" t="n">
         <v>1.7</v>
       </c>
+      <c r="G54" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1647,6 +2959,30 @@
       <c r="F55" t="n">
         <v>0</v>
       </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1669,6 +3005,30 @@
       <c r="F56" t="n">
         <v>34</v>
       </c>
+      <c r="G56" t="n">
+        <v>155</v>
+      </c>
+      <c r="H56" t="n">
+        <v>259</v>
+      </c>
+      <c r="I56" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="J56" t="n">
+        <v>41</v>
+      </c>
+      <c r="K56" t="n">
+        <v>354</v>
+      </c>
+      <c r="L56" t="n">
+        <v>71</v>
+      </c>
+      <c r="M56" t="n">
+        <v>35</v>
+      </c>
+      <c r="N56" t="n">
+        <v>392</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1691,6 +3051,30 @@
       <c r="F57" t="n">
         <v>89.3</v>
       </c>
+      <c r="G57" t="n">
+        <v>74.62</v>
+      </c>
+      <c r="H57" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="I57" t="n">
+        <v>43</v>
+      </c>
+      <c r="J57" t="n">
+        <v>90.06999999999999</v>
+      </c>
+      <c r="K57" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="L57" t="n">
+        <v>83.61</v>
+      </c>
+      <c r="M57" t="n">
+        <v>90.17</v>
+      </c>
+      <c r="N57" t="n">
+        <v>29.16</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -1712,6 +3096,30 @@
       </c>
       <c r="F58" t="n">
         <v>0.87</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I58" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="K58" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="N58" t="n">
+        <v>6.04</v>
       </c>
     </row>
   </sheetData>
